--- a/config_9.29/fish_use_config.xlsx
+++ b/config_9.29/fish_use_config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -231,13 +231,13 @@
       <sheetName val="summon_fish"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="1">
           <cell r="C1" t="str">
             <v>act_id|活动ID</v>
@@ -250,6 +250,7 @@
           <cell r="B2">
             <v>1</v>
           </cell>
+          <cell r="C2"/>
         </row>
         <row r="3">
           <cell r="A3">
@@ -258,6 +259,7 @@
           <cell r="B3">
             <v>2</v>
           </cell>
+          <cell r="C3"/>
         </row>
         <row r="4">
           <cell r="A4">
@@ -266,6 +268,7 @@
           <cell r="B4">
             <v>3</v>
           </cell>
+          <cell r="C4"/>
         </row>
         <row r="5">
           <cell r="A5">
@@ -274,6 +277,7 @@
           <cell r="B5">
             <v>4</v>
           </cell>
+          <cell r="C5"/>
         </row>
         <row r="6">
           <cell r="A6">
@@ -282,6 +286,7 @@
           <cell r="B6">
             <v>5</v>
           </cell>
+          <cell r="C6"/>
         </row>
         <row r="7">
           <cell r="A7">
@@ -290,6 +295,7 @@
           <cell r="B7">
             <v>6</v>
           </cell>
+          <cell r="C7"/>
         </row>
         <row r="8">
           <cell r="A8">
@@ -298,6 +304,7 @@
           <cell r="B8">
             <v>7</v>
           </cell>
+          <cell r="C8"/>
         </row>
         <row r="9">
           <cell r="A9">
@@ -306,6 +313,7 @@
           <cell r="B9">
             <v>8</v>
           </cell>
+          <cell r="C9"/>
         </row>
         <row r="10">
           <cell r="A10">
@@ -314,6 +322,7 @@
           <cell r="B10">
             <v>9</v>
           </cell>
+          <cell r="C10"/>
         </row>
         <row r="11">
           <cell r="A11">
@@ -322,6 +331,7 @@
           <cell r="B11">
             <v>10</v>
           </cell>
+          <cell r="C11"/>
         </row>
         <row r="12">
           <cell r="A12">
@@ -330,6 +340,7 @@
           <cell r="B12">
             <v>11</v>
           </cell>
+          <cell r="C12"/>
         </row>
         <row r="13">
           <cell r="A13">
@@ -338,6 +349,7 @@
           <cell r="B13">
             <v>12</v>
           </cell>
+          <cell r="C13"/>
         </row>
         <row r="14">
           <cell r="A14">
@@ -346,6 +358,7 @@
           <cell r="B14">
             <v>13</v>
           </cell>
+          <cell r="C14"/>
         </row>
         <row r="15">
           <cell r="A15">
@@ -354,6 +367,7 @@
           <cell r="B15">
             <v>14</v>
           </cell>
+          <cell r="C15"/>
         </row>
         <row r="16">
           <cell r="A16">
@@ -362,6 +376,7 @@
           <cell r="B16">
             <v>15</v>
           </cell>
+          <cell r="C16"/>
         </row>
         <row r="17">
           <cell r="A17">
@@ -370,6 +385,7 @@
           <cell r="B17">
             <v>16</v>
           </cell>
+          <cell r="C17"/>
         </row>
         <row r="18">
           <cell r="A18">
@@ -378,6 +394,7 @@
           <cell r="B18">
             <v>17</v>
           </cell>
+          <cell r="C18"/>
         </row>
         <row r="19">
           <cell r="A19">
@@ -386,6 +403,7 @@
           <cell r="B19">
             <v>18</v>
           </cell>
+          <cell r="C19"/>
         </row>
         <row r="20">
           <cell r="A20">
@@ -1516,6 +1534,7 @@
           <cell r="B122">
             <v>20</v>
           </cell>
+          <cell r="C122"/>
         </row>
         <row r="123">
           <cell r="A123">
@@ -1524,6 +1543,7 @@
           <cell r="B123">
             <v>21</v>
           </cell>
+          <cell r="C123"/>
         </row>
         <row r="124">
           <cell r="A124">
@@ -1532,6 +1552,7 @@
           <cell r="B124">
             <v>28</v>
           </cell>
+          <cell r="C124"/>
         </row>
         <row r="125">
           <cell r="A125">
@@ -1796,8 +1817,72 @@
             <v>24</v>
           </cell>
         </row>
+        <row r="150">
+          <cell r="B150">
+            <v>31</v>
+          </cell>
+          <cell r="C150">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>31</v>
+          </cell>
+          <cell r="C151">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>31</v>
+          </cell>
+          <cell r="C152">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>5</v>
+          </cell>
+          <cell r="C153">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>6</v>
+          </cell>
+          <cell r="C154">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>7</v>
+          </cell>
+          <cell r="C155">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>8</v>
+          </cell>
+          <cell r="C156">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>9</v>
+          </cell>
+          <cell r="C157">
+            <v>30</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1">
+      <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|编号</v>
@@ -2103,21 +2188,54 @@
             <v>9</v>
           </cell>
           <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>9</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>9</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>9</v>
+          </cell>
+          <cell r="D31">
             <v>1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2386,10 +2504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4480,6 +4599,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="4">
+        <f>[1]use_fish!$B150</f>
         <v>31</v>
       </c>
       <c r="C150" s="1" t="str">
@@ -4492,36 +4612,99 @@
         <v>150</v>
       </c>
       <c r="B151" s="4">
-        <v>32</v>
+        <f>[1]use_fish!$B151</f>
+        <v>31</v>
       </c>
       <c r="C151" s="1" t="str">
+        <f>IF(ISBLANK([1]use_fish!$C151),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <f>[1]use_fish!$B152</f>
+        <v>31</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f>IF(ISBLANK([1]use_fish!$C152),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <f>[1]use_fish!$B153</f>
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C153),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <f>[1]use_fish!$B154</f>
+        <v>6</v>
+      </c>
+      <c r="C154" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C154),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <f>[1]use_fish!$B155</f>
+        <v>7</v>
+      </c>
+      <c r="C155" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C155),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <f>[1]use_fish!$B156</f>
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <f>IF(ISBLANK([1]use_fish!$C156),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <f>[1]use_fish!$B157</f>
+        <v>9</v>
+      </c>
+      <c r="C157" s="1">
         <f>IF(ISBLANK([1]use_fish!$C157),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C158),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C159),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C160),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="1" t="str">
-        <f>IF(ISBLANK([1]use_fish!$C161),"",IF(INDEX([1]activity!$D:$D,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))=0,"",INDEX([1]activity!$B:$B,MATCH([1]use_fish!$C:$C,[1]activity!$A:$A,0))))</f>
-        <v/>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
